--- a/Prac3/resultados.xlsx
+++ b/Prac3/resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablogomezmartin/Desktop/DEEPPERECT_v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/pablo_gomez_martin_alumnos_upm_es/Documents/4º CARRERA/EXPERIMENTACIÓN CON APRENDIZAJE PROFUNDO /EIS_DEEP_PERFECT/Prac3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9FEED6-C086-8C48-8710-1F76EB42B583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{0B9FEED6-C086-8C48-8710-1F76EB42B583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1EA2AF0-F12D-4942-B421-49E61265341E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15080" windowHeight="18900" xr2:uid="{215B37C9-1021-064A-9BDC-A22F75D01107}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15080" windowHeight="17840" xr2:uid="{215B37C9-1021-064A-9BDC-A22F75D01107}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>850</v>
+        <v>923</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -555,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>861</v>
+        <v>987</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -599,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>971</v>
+        <v>1003</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -610,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>845</v>
+        <v>992</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -797,7 +797,7 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>987</v>
+        <v>623</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
@@ -874,7 +874,7 @@
         <v>26</v>
       </c>
       <c r="B34">
-        <v>931</v>
+        <v>739</v>
       </c>
       <c r="C34" t="s">
         <v>30</v>
@@ -885,7 +885,7 @@
         <v>26</v>
       </c>
       <c r="B35">
-        <v>628</v>
+        <v>712</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
@@ -896,7 +896,7 @@
         <v>26</v>
       </c>
       <c r="B36">
-        <v>629</v>
+        <v>689</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
@@ -940,7 +940,7 @@
         <v>26</v>
       </c>
       <c r="B40">
-        <v>494</v>
+        <v>688</v>
       </c>
       <c r="C40" t="s">
         <v>36</v>
@@ -951,7 +951,7 @@
         <v>26</v>
       </c>
       <c r="B41">
-        <v>639</v>
+        <v>723</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
